--- a/data/inventory_data_merged.xlsx
+++ b/data/inventory_data_merged.xlsx
@@ -470,12 +470,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>data_sortida</t>
+          <t>darrera_data_sortida</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>data_entrada</t>
+          <t>darrera_data_entrada</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
